--- a/sql.xlsx
+++ b/sql.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="帳號" sheetId="1" r:id="rId1"/>
-    <sheet name="留言板&amp;站內訊息" sheetId="2" r:id="rId2"/>
+    <sheet name="搜尋引擎" sheetId="3" r:id="rId2"/>
+    <sheet name="留言板&amp;站內訊息" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="164">
   <si>
     <t>UserAccount</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,530 +84,602 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>註冊時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後登入時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否註銷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UA03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UA04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UA05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UA002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASE加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD5加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府登記編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登錄時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UA000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址(縣市)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址(鄉鎮)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址(結尾)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職階</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMA00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMA01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMA03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發送時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發送者編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UA00B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UA00A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收者編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否收看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已發送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言者編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirmMangerAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UA001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(70)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機構編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回覆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回覆時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否閱讀留言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB002A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB002B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否閱讀回覆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F03A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F03B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F03C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UA003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否開通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增機構</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>註冊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後修改時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserAccountAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAA00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UA00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1=系統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAA01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動作類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAA02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAA03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAA000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動作時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編級機構</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UA00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增留言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回覆留言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除回覆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除留言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否顯示回覆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestBook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UA06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暱稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除機構</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能分類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長照分類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評鑑等級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均價位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>信箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>註冊時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後登入時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否註銷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UA03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UA04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UA05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UA002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASE加密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MD5加密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府登記編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>傳真</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登錄時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UA000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址(縣市)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址(鄉鎮)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址(結尾)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>會員編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>職階</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FMA00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FMA01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FMA03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>內容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留言時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GB01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GB000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>發送時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>發送者編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UA00B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UA00A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收者編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否收看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>預設值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否已發送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留言者編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FirmMangerAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Firm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuestBook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UA001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(70)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>機構編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GB02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回覆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GB001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回覆時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否閱讀留言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GB002A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GB002B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否閱讀回覆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GB003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市話</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F03A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F03B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F03C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UA003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否開通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION TABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>說明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增機構</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>註冊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登入</t>
+    <t>帳號管理權限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編輯機構權限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回覆機構留言</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AccountAuthority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AA01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AA02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AA03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AA000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後修改時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳號管理權限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編輯機構</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回覆機構留言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserAccountAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UAA00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UA00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>會員編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> -1=系統</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UAA01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>動作類型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>詳查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UAA02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UAA03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UAA000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>動作時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編級機構</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GB00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UA00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增留言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回覆留言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刪除回覆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +806,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -756,6 +829,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1116,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1131,20 +1210,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="J1" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="J1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1157,13 +1236,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -1172,10 +1251,10 @@
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1186,24 +1265,24 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="1">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1214,24 +1293,24 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1">
         <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1242,167 +1321,179 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1">
         <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="1">
         <v>4</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7" s="1">
         <v>5</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8" s="1">
         <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="B9" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="J9" s="1">
         <v>7</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
+      <c r="J10" s="1">
+        <v>8</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
+      <c r="J11" s="1">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -1412,131 +1503,133 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
+      <c r="F16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1546,536 +1639,632 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="2">
+        <v>148</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="D34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="F34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="10"/>
+      <c r="C35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>10</v>
+      <c r="A37" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>126</v>
+      <c r="A38" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>129</v>
+      <c r="A39" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="A41" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>137</v>
+      <c r="A42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="10"/>
+      <c r="A44" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>2</v>
+      <c r="A45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>5</v>
+      <c r="G45" s="6"/>
+      <c r="H45" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="B56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="6" t="s">
+      <c r="B57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" s="6" t="b">
+      <c r="D57" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A41:H41"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A50:H50"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A33:H33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H39" location="帳號!K1" display="詳查"/>
+    <hyperlink ref="H45" location="帳號!K1" display="詳查"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2084,10 +2273,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2098,15 +2300,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2119,7 +2321,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -2133,102 +2335,102 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2237,16 +2439,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2254,55 +2456,55 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -2311,72 +2513,74 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+    <row r="13" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2384,10 +2588,10 @@
         <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2396,62 +2600,60 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -2461,18 +2663,35 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="A23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
